--- a/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,23 +452,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45495</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45509</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,31 +476,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45523</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45530</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45558</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45565</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>20</v>
@@ -508,23 +508,23 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45572</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45579</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45586</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -532,9 +532,33 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45593</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>20</v>
       </c>
     </row>
@@ -549,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,41 +595,49 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B7" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -589,7 +590,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,355 @@
       </c>
       <c r="B7" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-23.10503685479295</v>
+      </c>
+      <c r="D2" t="n">
+        <v>76.38102106014671</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.68208123882636</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.57543426707353</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-23.69978494894082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.72854907001394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-17.91796057228213</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.22568934050977</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-12.67720538087079</v>
+      </c>
+      <c r="D6" t="n">
+        <v>82.17958959629367</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-14.15795519527125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>83.55158139472606</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.416493547841389</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.64681308038115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.80752555392515</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83.49466707888065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-14.3992888256125</v>
+      </c>
+      <c r="D10" t="n">
+        <v>81.32025601299409</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.71939745449052</v>
+      </c>
+      <c r="D11" t="n">
+        <v>86.41035274702459</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.70363172595939</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84.59051474898075</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-12.60084129690733</v>
+      </c>
+      <c r="D13" t="n">
+        <v>82.47344581999317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-12.37200140794263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>83.27918606763247</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.205772632636181</v>
+      </c>
+      <c r="D15" t="n">
+        <v>82.46515526103757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-15.7911141553578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>83.2086783614882</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.859216573499572</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83.78917244228127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-10.84217754537623</v>
+      </c>
+      <c r="D18" t="n">
+        <v>84.0559244141151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-11.78955406965176</v>
+      </c>
+      <c r="D19" t="n">
+        <v>81.8038802357957</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-13.79031215253987</v>
+      </c>
+      <c r="D20" t="n">
+        <v>81.4777985405513</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-12.08152415385353</v>
+      </c>
+      <c r="D21" t="n">
+        <v>82.71825787377384</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.34119604467374</v>
+      </c>
+      <c r="D22" t="n">
+        <v>81.41678886997475</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-9.578609595316687</v>
+      </c>
+      <c r="D23" t="n">
+        <v>87.70091341566435</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CDNCNBSP_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
-        <v>-23.10503685479295</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76.38102106014671</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
-        <v>-19.68208123882636</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.57543426707353</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>27</v>
       </c>
-      <c r="C4" t="n">
-        <v>-23.69978494894082</v>
-      </c>
-      <c r="D4" t="n">
-        <v>77.72854907001394</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>-17.91796057228213</v>
-      </c>
-      <c r="D5" t="n">
-        <v>78.22568934050977</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>33</v>
       </c>
-      <c r="C6" t="n">
-        <v>-12.67720538087079</v>
-      </c>
-      <c r="D6" t="n">
-        <v>82.17958959629367</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
-        <v>-14.15795519527125</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83.55158139472606</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.416493547841389</v>
-      </c>
-      <c r="D8" t="n">
-        <v>81.64681308038115</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.80752555392515</v>
-      </c>
-      <c r="D9" t="n">
-        <v>83.49466707888065</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
-        <v>-14.3992888256125</v>
-      </c>
-      <c r="D10" t="n">
-        <v>81.32025601299409</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>35</v>
       </c>
-      <c r="C11" t="n">
-        <v>-13.71939745449052</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86.41035274702459</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>35</v>
       </c>
-      <c r="C12" t="n">
-        <v>-11.70363172595939</v>
-      </c>
-      <c r="D12" t="n">
-        <v>84.59051474898075</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>35</v>
       </c>
-      <c r="C13" t="n">
-        <v>-12.60084129690733</v>
-      </c>
-      <c r="D13" t="n">
-        <v>82.47344581999317</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>35</v>
       </c>
-      <c r="C14" t="n">
-        <v>-12.37200140794263</v>
-      </c>
-      <c r="D14" t="n">
-        <v>83.27918606763247</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>-9.205772632636181</v>
-      </c>
-      <c r="D15" t="n">
-        <v>82.46515526103757</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>36</v>
       </c>
-      <c r="C16" t="n">
-        <v>-15.7911141553578</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83.2086783614882</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>36</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.859216573499572</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83.78917244228127</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>36</v>
       </c>
-      <c r="C18" t="n">
-        <v>-10.84217754537623</v>
-      </c>
-      <c r="D18" t="n">
-        <v>84.0559244141151</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>36</v>
       </c>
-      <c r="C19" t="n">
-        <v>-11.78955406965176</v>
-      </c>
-      <c r="D19" t="n">
-        <v>81.8038802357957</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -942,12 +824,6 @@
       <c r="B20" t="n">
         <v>36</v>
       </c>
-      <c r="C20" t="n">
-        <v>-13.79031215253987</v>
-      </c>
-      <c r="D20" t="n">
-        <v>81.4777985405513</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -956,12 +832,6 @@
       <c r="B21" t="n">
         <v>36</v>
       </c>
-      <c r="C21" t="n">
-        <v>-12.08152415385353</v>
-      </c>
-      <c r="D21" t="n">
-        <v>82.71825787377384</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -970,12 +840,6 @@
       <c r="B22" t="n">
         <v>36</v>
       </c>
-      <c r="C22" t="n">
-        <v>-13.34119604467374</v>
-      </c>
-      <c r="D22" t="n">
-        <v>81.41678886997475</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -983,12 +847,6 @@
       </c>
       <c r="B23" t="n">
         <v>37</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-9.578609595316687</v>
-      </c>
-      <c r="D23" t="n">
-        <v>87.70091341566435</v>
       </c>
     </row>
   </sheetData>
